--- a/MyCPU1/doc/微指令设计.xlsx
+++ b/MyCPU1/doc/微指令设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="取指令" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="393">
   <si>
     <t>周期</t>
   </si>
@@ -1506,6 +1506,34 @@
   </si>
   <si>
     <t>100110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000000000001000001100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000000000001010100100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000000000000011000100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000000000000011000101000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2351,7 +2379,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2514,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f t="shared" ref="C3:C64" si="0">D3&amp;E3&amp;F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3&amp;N3&amp;O3&amp;P3&amp;Q3&amp;R3&amp;S3&amp;T3&amp;U3&amp;V3&amp;W3</f>
+        <f t="shared" ref="C3:C63" si="0">D3&amp;E3&amp;F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3&amp;N3&amp;O3&amp;P3&amp;Q3&amp;R3&amp;S3&amp;T3&amp;U3&amp;V3&amp;W3</f>
         <v>0100000000000000010011100010</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2583,7 +2611,7 @@
         <v>190</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B64" si="1">B3+1</f>
+        <f t="shared" ref="B4:B63" si="1">B3+1</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="str">
@@ -5216,7 +5244,7 @@
       </c>
       <c r="C40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0000000000000001000100100000</v>
+        <v>0000000000000001100100100000</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>29</v>
@@ -5246,7 +5274,7 @@
         <v>49</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>29</v>
@@ -5289,7 +5317,7 @@
       </c>
       <c r="C41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0000000000000000001000100000</v>
+        <v>0000000000000001101000100000</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>29</v>
@@ -5316,10 +5344,10 @@
         <v>29</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>29</v>
+        <v>386</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>29</v>
@@ -5362,7 +5390,7 @@
       </c>
       <c r="C42" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0000000000000000001000101000</v>
+        <v>0000000000000001101000101000</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>29</v>
@@ -5389,10 +5417,10 @@
         <v>29</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>29</v>
@@ -6994,7 +7022,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <selection pane="bottomLeft" activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9281,7 +9309,7 @@
         <v>29</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>29</v>
@@ -9351,7 +9379,7 @@
         <v>29</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>38</v>
@@ -9421,7 +9449,7 @@
         <v>29</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>38</v>
@@ -10843,8 +10871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13255,7 +13284,7 @@
         <v>266</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>251</v>
+        <v>389</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>29</v>
@@ -13325,13 +13354,13 @@
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>01000000000000000001000100100000</v>
+        <v>01000000000000000001010100100000</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>266</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>252</v>
+        <v>390</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>29</v>
@@ -13364,7 +13393,7 @@
         <v>29</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>29</v>
@@ -13401,13 +13430,13 @@
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>01000000000000000000001000100000</v>
+        <v>01000000000000000000011000100000</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>266</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>253</v>
+        <v>391</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>29</v>
@@ -13440,7 +13469,7 @@
         <v>29</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>38</v>
@@ -13477,13 +13506,13 @@
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>00000000000000000000001000101000</v>
+        <v>00000000000000000000011000101000</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>254</v>
+        <v>392</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>29</v>
@@ -13516,7 +13545,7 @@
         <v>29</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>29</v>
+        <v>388</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>38</v>
@@ -17669,7 +17698,7 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18131,7 +18160,7 @@
         <v>29</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>50</v>
@@ -18193,13 +18222,13 @@
         <v>30</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>30</v>
+        <v>387</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>59</v>
@@ -18261,13 +18290,13 @@
         <v>30</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>126</v>
@@ -18911,8 +18940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>

--- a/MyCPU1/doc/微指令设计.xlsx
+++ b/MyCPU1/doc/微指令设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="取指令" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="394">
   <si>
     <t>周期</t>
   </si>
@@ -538,27 +538,874 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存读操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存执行写操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待内存准备好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rs寄存器将数据写到总线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总线将数据写到LA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rt寄存器将数据写到总线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总线将数据写给LB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若FLAG_ZERO=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若FLAG_ZERO=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC将数据写到总线,32位扩展立即数送给LB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总线将数据送给LA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU将结果写到总线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总线将跳转地址写给PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>根据ALU的FLAG_ZERO位做决定，以BEQ为例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将跳转地址写到PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微指令地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微程序段描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算术逻辑指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEQ、BNQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XORI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微指令地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算术逻辑指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XORI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEQ、BNQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微指令二进制形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微指令二进制形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0100000000000000010001100010</t>
+  </si>
+  <si>
+    <t>0100000000000110010011100010</t>
+  </si>
+  <si>
+    <t>0100000000000000011001100000</t>
+  </si>
+  <si>
+    <t>0100000000000000001001100100</t>
+  </si>
+  <si>
+    <t>0100000000000000000000010000</t>
+  </si>
+  <si>
+    <t>0100000000000010000000010000</t>
+  </si>
+  <si>
+    <t>0100000000000000000000110000</t>
+  </si>
+  <si>
+    <t>0100000000000100000000110000</t>
+  </si>
+  <si>
+    <t>0100000000001000000001100000</t>
+  </si>
+  <si>
+    <t>0000000000000010000000010000</t>
+  </si>
+  <si>
+    <t>0000011000000100000000000000</t>
+  </si>
+  <si>
+    <t>0000011000001000000000100000</t>
+  </si>
+  <si>
+    <t>0000011000001000000000101000</t>
+  </si>
+  <si>
+    <t>0000011001000100000000000000</t>
+  </si>
+  <si>
+    <t>0000011001001000000000100000</t>
+  </si>
+  <si>
+    <t>0000011001001000000000101000</t>
+  </si>
+  <si>
+    <t>0000011001010100000000000000</t>
+  </si>
+  <si>
+    <t>0000011001011000000000100000</t>
+  </si>
+  <si>
+    <t>0000011001011000000000101000</t>
+  </si>
+  <si>
+    <t>0000011001100100000000000000</t>
+  </si>
+  <si>
+    <t>0000011001101000000000100000</t>
+  </si>
+  <si>
+    <t>0000011001101000000000101000</t>
+  </si>
+  <si>
+    <t>1000000000000000000000100000</t>
+  </si>
+  <si>
+    <t>1000000000000000000000101000</t>
+  </si>
+  <si>
+    <t>0000011000000100000000010000</t>
+  </si>
+  <si>
+    <t>0000011000000010000000010000</t>
+  </si>
+  <si>
+    <t>0000011000001000000000000000</t>
+  </si>
+  <si>
+    <t>0000011000001000000010000000</t>
+  </si>
+  <si>
+    <t>0000000000000001000001100000</t>
+  </si>
+  <si>
+    <t>0000000000000001000100100000</t>
+  </si>
+  <si>
+    <t>0000000000000000001000100000</t>
+  </si>
+  <si>
+    <t>0000000000000000001000101000</t>
+  </si>
+  <si>
+    <t>0000000000000000010000110000</t>
+  </si>
+  <si>
+    <t>0000000000000000010100110000</t>
+  </si>
+  <si>
+    <t>0000000000000000100000100000</t>
+  </si>
+  <si>
+    <t>0010011001100000000000010000</t>
+  </si>
+  <si>
+    <t>0010011001100010000000010000</t>
+  </si>
+  <si>
+    <t>0010011001100000000000110000</t>
+  </si>
+  <si>
+    <t>0010011001100100000000110000</t>
+  </si>
+  <si>
+    <t>0000011000000100000001100010</t>
+  </si>
+  <si>
+    <t>0000111000001000000001100000</t>
+  </si>
+  <si>
+    <t>0000111000001000000001100001</t>
+  </si>
+  <si>
+    <t>0001000000000000000001100001</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控存中实际存储的内容（下地址+填充“00”+微指令）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作码（地址2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前控存地址（地址1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址1二进制形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址2十进制形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下地址（00表示地址归零，01表示顺序执行，10表示功能转移1,11表示功能转移2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表地址（地址2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表地址（地址1 xor 地址2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下地址二进制形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000</t>
+  </si>
+  <si>
+    <t>00000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00011001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00011011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00011011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00100110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00101110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下地址二进制形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00001100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00001101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00010000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00010011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00010110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00011111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00100011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内存读操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0100000000001001010101100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待指令传给CU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下地址 = 操作码 +2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0100000000001000000001001000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000011000000010000001100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000111000001000000001100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000111000001000000001100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000111000000010000001100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000111000000100000001100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上述条件跳转指令在测试时发现有总线冲突问题，需要重新设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断flag_zero，看是继续走还是回到开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -566,11 +1413,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内存执行写操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
+    <t>选择PC值数据源为BEQ_Hardware，写PC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -578,51 +1421,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指令结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指令结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指令结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指令结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指令结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待内存准备好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rs寄存器将数据写到总线</t>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEQ、BNQ2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEQ、BNQ2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEQ、BNQ2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEQ、BNQ2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -630,910 +1485,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总线将数据写到LA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100110</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>100110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000000000001000001100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000000000001010100100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000000000000011000100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000000000000011000101000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rt寄存器将数据写到总线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总线将数据写给LB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若FLAG_ZERO=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若FLAG_ZERO=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC将数据写到总线,32位扩展立即数送给LB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总线将数据送给LA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALU将结果写到总线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总线将跳转地址写给PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>根据ALU的FLAG_ZERO位做决定，以BEQ为例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指令结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将跳转地址写到PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微指令地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微程序段描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算术逻辑指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LUI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BEQ、BNQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANDI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XORI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微指令地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算术逻辑指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANDI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XORI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LUI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BEQ、BNQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微指令二进制形式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微指令二进制形式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0100000000000000010001100010</t>
-  </si>
-  <si>
-    <t>0100000000000110010011100010</t>
-  </si>
-  <si>
-    <t>0100000000000000011001100000</t>
-  </si>
-  <si>
-    <t>0100000000000000001001100100</t>
-  </si>
-  <si>
-    <t>0100000000000000000000010000</t>
-  </si>
-  <si>
-    <t>0100000000000010000000010000</t>
-  </si>
-  <si>
-    <t>0100000000000000000000110000</t>
-  </si>
-  <si>
-    <t>0100000000000100000000110000</t>
-  </si>
-  <si>
-    <t>0100000000001000000001100000</t>
-  </si>
-  <si>
-    <t>0000000000000010000000010000</t>
-  </si>
-  <si>
-    <t>0000011000000100000000000000</t>
-  </si>
-  <si>
-    <t>0000011000001000000000100000</t>
-  </si>
-  <si>
-    <t>0000011000001000000000101000</t>
-  </si>
-  <si>
-    <t>0000011001000100000000000000</t>
-  </si>
-  <si>
-    <t>0000011001001000000000100000</t>
-  </si>
-  <si>
-    <t>0000011001001000000000101000</t>
-  </si>
-  <si>
-    <t>0000011001010100000000000000</t>
-  </si>
-  <si>
-    <t>0000011001011000000000100000</t>
-  </si>
-  <si>
-    <t>0000011001011000000000101000</t>
-  </si>
-  <si>
-    <t>0000011001100100000000000000</t>
-  </si>
-  <si>
-    <t>0000011001101000000000100000</t>
-  </si>
-  <si>
-    <t>0000011001101000000000101000</t>
-  </si>
-  <si>
-    <t>1000000000000000000000100000</t>
-  </si>
-  <si>
-    <t>1000000000000000000000101000</t>
-  </si>
-  <si>
-    <t>0000011000000100000000010000</t>
-  </si>
-  <si>
-    <t>0000011000000010000000010000</t>
-  </si>
-  <si>
-    <t>0000011000001000000000000000</t>
-  </si>
-  <si>
-    <t>0000011000001000000010000000</t>
-  </si>
-  <si>
-    <t>0000000000000001000001100000</t>
-  </si>
-  <si>
-    <t>0000000000000001000100100000</t>
-  </si>
-  <si>
-    <t>0000000000000000001000100000</t>
-  </si>
-  <si>
-    <t>0000000000000000001000101000</t>
-  </si>
-  <si>
-    <t>0000000000000000010000110000</t>
-  </si>
-  <si>
-    <t>0000000000000000010100110000</t>
-  </si>
-  <si>
-    <t>0000000000000000100000100000</t>
-  </si>
-  <si>
-    <t>0010011001100000000000010000</t>
-  </si>
-  <si>
-    <t>0010011001100010000000010000</t>
-  </si>
-  <si>
-    <t>0010011001100000000000110000</t>
-  </si>
-  <si>
-    <t>0010011001100100000000110000</t>
-  </si>
-  <si>
-    <t>0000011000000100000001100010</t>
-  </si>
-  <si>
-    <t>0000111000001000000001100000</t>
-  </si>
-  <si>
-    <t>0000111000001000000001100001</t>
-  </si>
-  <si>
-    <t>0001000000000000000001100001</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000000000000000000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控存中实际存储的内容（下地址+填充“00”+微指令）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作码（地址2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前控存地址（地址1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址1二进制形式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址2十进制形式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下地址（00表示地址归零，01表示顺序执行，10表示功能转移1,11表示功能转移2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表地址（地址2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表地址（地址1 xor 地址2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下地址二进制形式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00000000</t>
-  </si>
-  <si>
-    <t>00000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00000110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00000110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00011001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00011011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00011011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00100110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00101110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下地址二进制形式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00000111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00001100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00001101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00010000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00010011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00010110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00011111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00100011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0100000000001001010101100001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待指令传给CU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下地址 = 操作码 +2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0100000000001000000001001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000011000000010000001100010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000111000001000000001100010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000111000001000000001100001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000111000000010000001100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000111000000100000001100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上述条件跳转指令在测试时发现有总线冲突问题，需要重新设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断flag_zero，看是继续走还是回到开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择PC值数据源为BEQ_Hardware，写PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BEQ、BNQ2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BEQ、BNQ2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BEQ、BNQ2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BEQ、BNQ2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000000000000001000001100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000000000000001010100100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000000000000000011000100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000000000000000011000101000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2074,10 +2078,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -2164,7 +2168,7 @@
         <v>34</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -2185,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="P5" s="1">
         <v>0</v>
@@ -2350,7 +2354,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -2377,9 +2381,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2392,13 +2396,13 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>94</v>
@@ -2463,7 +2467,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -2535,7 +2539,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B3" s="2">
         <f>B2+1</f>
@@ -2564,10 +2568,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L3" s="1">
         <v>0</v>
@@ -2608,7 +2612,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" ref="B4:B63" si="1">B3+1</f>
@@ -2634,7 +2638,7 @@
         <v>33</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -2655,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="1">
         <v>0</v>
@@ -2681,7 +2685,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" si="1"/>
@@ -2754,7 +2758,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" si="1"/>
@@ -2827,7 +2831,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" si="1"/>
@@ -2900,7 +2904,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" si="1"/>
@@ -2973,7 +2977,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="1"/>
@@ -3046,7 +3050,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" si="1"/>
@@ -3119,7 +3123,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" si="1"/>
@@ -3192,7 +3196,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" si="1"/>
@@ -3218,7 +3222,7 @@
         <v>33</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -3265,7 +3269,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" si="1"/>
@@ -3338,7 +3342,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" si="1"/>
@@ -3411,7 +3415,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" si="1"/>
@@ -3484,7 +3488,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" si="1"/>
@@ -3507,7 +3511,7 @@
         <v>49</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>38</v>
@@ -3557,7 +3561,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" si="1"/>
@@ -3580,7 +3584,7 @@
         <v>49</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>49</v>
@@ -3630,7 +3634,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" ref="B18:B22" si="2">B17+1</f>
@@ -3703,7 +3707,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" si="2"/>
@@ -3776,7 +3780,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" si="2"/>
@@ -3799,7 +3803,7 @@
         <v>38</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>29</v>
@@ -3849,7 +3853,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" si="2"/>
@@ -3872,7 +3876,7 @@
         <v>38</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>38</v>
@@ -3922,7 +3926,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" si="2"/>
@@ -3945,7 +3949,7 @@
         <v>38</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>38</v>
@@ -3995,7 +3999,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" ref="B23:B27" si="3">B22+1</f>
@@ -4068,7 +4072,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" si="3"/>
@@ -4141,7 +4145,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" si="3"/>
@@ -4164,7 +4168,7 @@
         <v>38</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>29</v>
@@ -4214,7 +4218,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B26" s="2">
         <f t="shared" si="3"/>
@@ -4237,7 +4241,7 @@
         <v>38</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>38</v>
@@ -4287,7 +4291,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" si="3"/>
@@ -4310,7 +4314,7 @@
         <v>38</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>38</v>
@@ -4360,7 +4364,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" ref="B28:B32" si="4">B27+1</f>
@@ -4433,7 +4437,7 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B29" s="2">
         <f t="shared" si="4"/>
@@ -4506,7 +4510,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B30" s="2">
         <f t="shared" si="4"/>
@@ -4529,7 +4533,7 @@
         <v>38</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>29</v>
@@ -4579,7 +4583,7 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B31" s="2">
         <f t="shared" si="4"/>
@@ -4602,7 +4606,7 @@
         <v>38</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>38</v>
@@ -4652,7 +4656,7 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B32" s="2">
         <f t="shared" si="4"/>
@@ -4675,7 +4679,7 @@
         <v>38</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>38</v>
@@ -4725,7 +4729,7 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B33" s="2">
         <f>B17+1</f>
@@ -4798,7 +4802,7 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B34" s="2">
         <f t="shared" si="1"/>
@@ -4871,7 +4875,7 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B35" s="2">
         <f t="shared" si="1"/>
@@ -4944,7 +4948,7 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B36" s="2">
         <f t="shared" si="1"/>
@@ -5017,7 +5021,7 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B37" s="2">
         <f t="shared" si="1"/>
@@ -5090,7 +5094,7 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B38" s="2">
         <f t="shared" si="1"/>
@@ -5163,7 +5167,7 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B39" s="2">
         <f t="shared" si="1"/>
@@ -5236,7 +5240,7 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B40" s="2">
         <f t="shared" si="1"/>
@@ -5309,7 +5313,7 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B41" s="2">
         <f t="shared" si="1"/>
@@ -5344,7 +5348,7 @@
         <v>29</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>49</v>
@@ -5382,7 +5386,7 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B42" s="2">
         <f t="shared" si="1"/>
@@ -5455,7 +5459,7 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B43" s="2">
         <f t="shared" si="1"/>
@@ -5528,7 +5532,7 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B44" s="2">
         <f t="shared" si="1"/>
@@ -5601,7 +5605,7 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B45" s="2">
         <f t="shared" si="1"/>
@@ -5674,7 +5678,7 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B46" s="2">
         <f t="shared" si="1"/>
@@ -5747,7 +5751,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B47" s="2">
         <f t="shared" si="1"/>
@@ -5755,7 +5759,7 @@
       </c>
       <c r="C47" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0000000000000000010000110000</v>
+        <v>0000000000000000000000110000</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>29</v>
@@ -5788,7 +5792,7 @@
         <v>29</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>49</v>
+        <v>390</v>
       </c>
       <c r="O47" s="1" t="s">
         <v>29</v>
@@ -5820,7 +5824,7 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B48" s="2">
         <f t="shared" si="1"/>
@@ -5828,7 +5832,7 @@
       </c>
       <c r="C48" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0000000000000000010100110000</v>
+        <v>0000000000000000100100110000</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>29</v>
@@ -5858,13 +5862,13 @@
         <v>29</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>100</v>
+        <v>392</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>29</v>
+        <v>391</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>49</v>
@@ -5893,7 +5897,7 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B49" s="2">
         <f t="shared" si="1"/>
@@ -5901,7 +5905,7 @@
       </c>
       <c r="C49" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0000000000000000100000100000</v>
+        <v>0000000000000000101000110000</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>29</v>
@@ -5937,10 +5941,10 @@
         <v>29</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>29</v>
@@ -5949,7 +5953,7 @@
         <v>46</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="T49" s="1" t="s">
         <v>29</v>
@@ -5966,7 +5970,7 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B50" s="2">
         <f t="shared" si="1"/>
@@ -5989,7 +5993,7 @@
         <v>49</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>29</v>
@@ -6039,7 +6043,7 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B51" s="2">
         <f t="shared" si="1"/>
@@ -6062,7 +6066,7 @@
         <v>49</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>29</v>
@@ -6112,7 +6116,7 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B52" s="2">
         <f t="shared" si="1"/>
@@ -6135,7 +6139,7 @@
         <v>49</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>29</v>
@@ -6185,7 +6189,7 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B53" s="2">
         <f t="shared" si="1"/>
@@ -6208,7 +6212,7 @@
         <v>38</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>29</v>
@@ -6258,7 +6262,7 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B54" s="2">
         <f t="shared" si="1"/>
@@ -6331,7 +6335,7 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B55" s="2">
         <f t="shared" si="1"/>
@@ -6396,7 +6400,7 @@
         <v>29</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="W55" s="1" t="s">
         <v>50</v>
@@ -6404,7 +6408,7 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B56" s="2">
         <f t="shared" si="1"/>
@@ -6477,7 +6481,7 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B57" s="2">
         <f t="shared" si="1"/>
@@ -6550,7 +6554,7 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B58" s="2">
         <f t="shared" si="1"/>
@@ -6623,7 +6627,7 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B59" s="2">
         <f t="shared" si="1"/>
@@ -6646,7 +6650,7 @@
         <v>38</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I59" s="1">
         <v>0</v>
@@ -6696,7 +6700,7 @@
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B60" s="2">
         <f t="shared" si="1"/>
@@ -6719,7 +6723,7 @@
         <v>38</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I60" s="1">
         <v>0</v>
@@ -6769,7 +6773,7 @@
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B61" s="2">
         <f t="shared" si="1"/>
@@ -6789,10 +6793,10 @@
         <v>26</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
@@ -6842,7 +6846,7 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B62" s="2">
         <f t="shared" si="1"/>
@@ -6865,7 +6869,7 @@
         <v>38</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I62" s="1">
         <v>0</v>
@@ -6910,12 +6914,12 @@
         <v>0</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B63" s="2">
         <f t="shared" si="1"/>
@@ -6926,64 +6930,64 @@
         <v>0101111000100000000001100001</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="J63" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="K63" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="M63" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="N63" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="R63" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="S63" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="K63" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="M63" s="1" t="s">
+      <c r="T63" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="N63" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="R63" s="1" t="s">
+      <c r="U63" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="W63" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="T63" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="U63" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="V63" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="W63" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.15">
@@ -7021,8 +7025,8 @@
   <dimension ref="A1:W58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M35" sqref="M35"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7033,10 +7037,10 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>94</v>
@@ -7104,7 +7108,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>29</v>
@@ -7285,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P4" s="1">
         <v>0</v>
@@ -7316,7 +7320,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>29</v>
@@ -7386,7 +7390,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>29</v>
@@ -7456,7 +7460,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>29</v>
@@ -7526,7 +7530,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>29</v>
@@ -7596,7 +7600,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>29</v>
@@ -7666,7 +7670,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>29</v>
@@ -7736,7 +7740,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>29</v>
@@ -7806,7 +7810,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>29</v>
@@ -7824,7 +7828,7 @@
         <v>32</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -7876,7 +7880,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>29</v>
@@ -7946,7 +7950,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>29</v>
@@ -8016,7 +8020,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>29</v>
@@ -8031,7 +8035,7 @@
         <v>38</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>38</v>
@@ -8086,7 +8090,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>29</v>
@@ -8101,7 +8105,7 @@
         <v>38</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>38</v>
@@ -8156,7 +8160,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>29</v>
@@ -8171,7 +8175,7 @@
         <v>38</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>29</v>
@@ -8226,7 +8230,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>29</v>
@@ -8241,7 +8245,7 @@
         <v>38</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>38</v>
@@ -8296,7 +8300,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>29</v>
@@ -8311,7 +8315,7 @@
         <v>38</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>38</v>
@@ -8366,7 +8370,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>29</v>
@@ -8381,7 +8385,7 @@
         <v>38</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>29</v>
@@ -8436,7 +8440,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>29</v>
@@ -8451,7 +8455,7 @@
         <v>38</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>38</v>
@@ -8506,7 +8510,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>29</v>
@@ -8521,7 +8525,7 @@
         <v>38</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>38</v>
@@ -8576,7 +8580,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>29</v>
@@ -8591,7 +8595,7 @@
         <v>38</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>29</v>
@@ -8646,7 +8650,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>29</v>
@@ -8661,7 +8665,7 @@
         <v>38</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>38</v>
@@ -8716,7 +8720,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>29</v>
@@ -8731,7 +8735,7 @@
         <v>38</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>38</v>
@@ -8786,7 +8790,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>38</v>
@@ -8856,7 +8860,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>38</v>
@@ -8926,7 +8930,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>29</v>
@@ -8996,7 +9000,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>29</v>
@@ -9066,7 +9070,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>29</v>
@@ -9136,7 +9140,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>29</v>
@@ -9206,7 +9210,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>29</v>
@@ -9254,7 +9258,7 @@
         <v>35</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>29</v>
+        <v>393</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>29</v>
@@ -9276,7 +9280,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>29</v>
@@ -9309,7 +9313,7 @@
         <v>29</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>29</v>
@@ -9324,7 +9328,7 @@
         <v>46</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>29</v>
@@ -9346,7 +9350,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>29</v>
@@ -9379,13 +9383,13 @@
         <v>29</v>
       </c>
       <c r="M34" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O34" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>29</v>
@@ -9394,7 +9398,7 @@
         <v>46</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>29</v>
+        <v>392</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>29</v>
@@ -9416,7 +9420,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>29</v>
@@ -9486,7 +9490,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>29</v>
@@ -9556,7 +9560,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>29</v>
@@ -9626,7 +9630,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>29</v>
@@ -9696,7 +9700,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>29</v>
@@ -9711,7 +9715,7 @@
         <v>38</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>29</v>
@@ -9766,7 +9770,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>29</v>
@@ -9781,7 +9785,7 @@
         <v>38</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>29</v>
@@ -9836,7 +9840,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>29</v>
@@ -9851,7 +9855,7 @@
         <v>38</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>29</v>
@@ -9906,7 +9910,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>29</v>
@@ -9921,7 +9925,7 @@
         <v>38</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>29</v>
@@ -9976,7 +9980,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>29</v>
@@ -10046,7 +10050,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>29</v>
@@ -10116,7 +10120,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>29</v>
@@ -10186,7 +10190,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>29</v>
@@ -10256,7 +10260,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>29</v>
@@ -10418,37 +10422,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" t="s">
         <v>211</v>
-      </c>
-      <c r="B1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D1" t="s">
-        <v>214</v>
       </c>
       <c r="E1" t="s">
         <v>88</v>
       </c>
       <c r="F1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I1" t="s">
         <v>215</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>216</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>217</v>
-      </c>
-      <c r="I1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J1" t="s">
-        <v>219</v>
-      </c>
-      <c r="K1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -10871,9 +10875,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34:B36"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10885,16 +10889,16 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>94</v>
@@ -10966,10 +10970,10 @@
         <v>01000000000000000000000000000000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -11001,10 +11005,10 @@
         <v>01000100000000000000010001100010</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>29</v>
@@ -11077,10 +11081,10 @@
         <v>01000100000000000110010011100010</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>29</v>
@@ -11101,10 +11105,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -11153,10 +11157,10 @@
         <v>01000100000000001001010101100001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>29</v>
@@ -11174,7 +11178,7 @@
         <v>32</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -11195,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -11229,10 +11233,10 @@
         <v>01000100000000000000011001100000</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>29</v>
@@ -11305,10 +11309,10 @@
         <v>10000100000000000000001001100100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>29</v>
@@ -11381,10 +11385,10 @@
         <v>11000100000000000000000000010000</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>29</v>
@@ -11457,10 +11461,10 @@
         <v>01000100000000000010000000010000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>29</v>
@@ -11533,10 +11537,10 @@
         <v>01000100000000000000000000110000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>29</v>
@@ -11609,10 +11613,10 @@
         <v>01000100000000000100000000110000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>29</v>
@@ -11685,10 +11689,10 @@
         <v>01000100000000001000000001100000</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>29</v>
@@ -11761,10 +11765,10 @@
         <v>00000100000000001000000001001000</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>29</v>
@@ -11782,7 +11786,7 @@
         <v>32</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -11837,10 +11841,10 @@
         <v>11000000000000000010000000010000</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>29</v>
@@ -11913,10 +11917,10 @@
         <v>01000000011000000100000000000000</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>29</v>
@@ -11989,10 +11993,10 @@
         <v>01000000011000001000000000100000</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>29</v>
@@ -12065,10 +12069,10 @@
         <v>00000000011000001000000000101000</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>29</v>
@@ -12141,10 +12145,10 @@
         <v>01000000011001000100000000000000</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>29</v>
@@ -12159,7 +12163,7 @@
         <v>38</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>29</v>
@@ -12220,7 +12224,7 @@
         <v>46</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>29</v>
@@ -12235,7 +12239,7 @@
         <v>38</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>38</v>
@@ -12296,7 +12300,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>29</v>
@@ -12311,7 +12315,7 @@
         <v>38</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>38</v>
@@ -12369,10 +12373,10 @@
         <v>01000000011001010100000000000000</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>29</v>
@@ -12387,7 +12391,7 @@
         <v>38</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>29</v>
@@ -12448,7 +12452,7 @@
         <v>46</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>29</v>
@@ -12463,7 +12467,7 @@
         <v>38</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>38</v>
@@ -12524,7 +12528,7 @@
         <v>26</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>29</v>
@@ -12539,7 +12543,7 @@
         <v>38</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>38</v>
@@ -12600,7 +12604,7 @@
         <v>46</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>29</v>
@@ -12615,7 +12619,7 @@
         <v>38</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>29</v>
@@ -12673,10 +12677,10 @@
         <v>01000000011001101000000000100000</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>29</v>
@@ -12691,7 +12695,7 @@
         <v>38</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>38</v>
@@ -12752,7 +12756,7 @@
         <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>29</v>
@@ -12767,7 +12771,7 @@
         <v>38</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>38</v>
@@ -12825,10 +12829,10 @@
         <v>01001000000000000000000000100000</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>38</v>
@@ -12901,10 +12905,10 @@
         <v>00001000000000000000000000101000</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>38</v>
@@ -12977,10 +12981,10 @@
         <v>01000000011000000100000000010000</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>29</v>
@@ -13053,10 +13057,10 @@
         <v>01000000011000000010000000010000</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>29</v>
@@ -13129,10 +13133,10 @@
         <v>01000000011000001000000000000000</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>29</v>
@@ -13205,10 +13209,10 @@
         <v>11000000011000001000000010000000</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>29</v>
@@ -13281,10 +13285,10 @@
         <v>01000000000000000001000001100000</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>29</v>
@@ -13357,10 +13361,10 @@
         <v>01000000000000000001010100100000</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>29</v>
@@ -13433,10 +13437,10 @@
         <v>01000000000000000000011000100000</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>29</v>
@@ -13512,7 +13516,7 @@
         <v>26</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>29</v>
@@ -13545,7 +13549,7 @@
         <v>29</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>38</v>
@@ -13585,10 +13589,10 @@
         <v>01000000000000000000010000110000</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>29</v>
@@ -13664,7 +13668,7 @@
         <v>46</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>29</v>
@@ -13737,10 +13741,10 @@
         <v>00000000000000000000100000100000</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>29</v>
@@ -13813,10 +13817,10 @@
         <v>01000010011001100000000000010000</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>29</v>
@@ -13831,7 +13835,7 @@
         <v>38</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>29</v>
@@ -13889,10 +13893,10 @@
         <v>01000010011001100010000000010000</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>29</v>
@@ -13907,7 +13911,7 @@
         <v>38</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>29</v>
@@ -13965,10 +13969,10 @@
         <v>01000010011001100000000000110000</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>29</v>
@@ -13983,7 +13987,7 @@
         <v>38</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>29</v>
@@ -14041,10 +14045,10 @@
         <v>01000010011001100100000000110000</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>29</v>
@@ -14059,7 +14063,7 @@
         <v>38</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>29</v>
@@ -14117,10 +14121,10 @@
         <v>01000000111000000100000001100000</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>29</v>
@@ -14129,7 +14133,7 @@
         <v>26</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>38</v>
@@ -14193,10 +14197,10 @@
         <v>01000000111000000010000001100000</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>29</v>
@@ -14269,10 +14273,10 @@
         <v>01000000111000001000000001100010</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>29</v>
@@ -14345,10 +14349,10 @@
         <v>00000000111000001000000001100001</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>29</v>
@@ -14421,10 +14425,10 @@
         <v>00000001000000000000000001100001</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>29</v>
@@ -14579,25 +14583,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -14609,7 +14613,7 @@
         <v>101</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D11" si="1">BIN2DEC(C2)</f>
@@ -14636,7 +14640,7 @@
         <v>101</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="1"/>
@@ -14663,7 +14667,7 @@
         <v>101</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="1"/>
@@ -14690,7 +14694,7 @@
         <v>101</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="1"/>
@@ -14717,7 +14721,7 @@
         <v>101</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="1"/>
@@ -14744,7 +14748,7 @@
         <v>101</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="1"/>
@@ -14771,7 +14775,7 @@
         <v>101</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="1"/>
@@ -14798,7 +14802,7 @@
         <v>101</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="1"/>
@@ -14825,7 +14829,7 @@
         <v>101</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="1"/>
@@ -14852,7 +14856,7 @@
         <v>101</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="1"/>
@@ -14959,10 +14963,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -14970,7 +14974,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -14979,7 +14983,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -14988,7 +14992,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -14997,7 +15001,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -15006,7 +15010,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -15015,7 +15019,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -15024,7 +15028,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -15033,7 +15037,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -15042,7 +15046,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -15051,7 +15055,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -15060,7 +15064,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -15069,7 +15073,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -15078,7 +15082,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -15087,7 +15091,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -15096,7 +15100,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -15105,7 +15109,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -15114,7 +15118,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -15123,7 +15127,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -15132,7 +15136,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -15141,7 +15145,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -15150,7 +15154,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -15159,7 +15163,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -15168,7 +15172,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -15177,7 +15181,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -15186,7 +15190,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -15195,7 +15199,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -15204,7 +15208,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -15213,7 +15217,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -15222,7 +15226,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -15231,7 +15235,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
@@ -15240,7 +15244,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -15249,7 +15253,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -15258,7 +15262,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -15267,7 +15271,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -15276,7 +15280,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -15285,7 +15289,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -15294,7 +15298,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -15303,7 +15307,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
@@ -15312,7 +15316,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -15321,7 +15325,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
@@ -15330,7 +15334,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -15339,7 +15343,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
@@ -15348,7 +15352,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
@@ -15357,7 +15361,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
@@ -15366,7 +15370,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
@@ -15375,7 +15379,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
@@ -15384,7 +15388,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
@@ -15393,7 +15397,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
@@ -15402,7 +15406,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -15411,7 +15415,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
@@ -15420,7 +15424,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
@@ -15429,7 +15433,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
@@ -15438,7 +15442,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
@@ -15447,7 +15451,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
@@ -15456,7 +15460,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
@@ -15465,7 +15469,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
@@ -15474,7 +15478,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
@@ -15483,7 +15487,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
@@ -15492,7 +15496,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
@@ -15501,7 +15505,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -15510,7 +15514,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
@@ -15519,7 +15523,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
@@ -15528,7 +15532,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
@@ -15537,7 +15541,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -15551,7 +15555,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15561,25 +15565,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -15601,7 +15605,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G2" s="3" t="str">
         <f>DEC2BIN(F2)</f>
@@ -15617,7 +15621,7 @@
         <v>110</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="1"/>
@@ -15627,7 +15631,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ref="G3:G12" si="2">DEC2BIN(F3)</f>
@@ -15643,7 +15647,7 @@
         <v>110</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="1"/>
@@ -15653,7 +15657,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" si="2"/>
@@ -15669,7 +15673,7 @@
         <v>110</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="1"/>
@@ -15679,7 +15683,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" si="2"/>
@@ -15695,7 +15699,7 @@
         <v>110</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="1"/>
@@ -15705,7 +15709,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="2"/>
@@ -15721,7 +15725,7 @@
         <v>1100</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="1"/>
@@ -15731,7 +15735,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" si="2"/>
@@ -15747,7 +15751,7 @@
         <v>1100</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="1"/>
@@ -15757,7 +15761,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="2"/>
@@ -15773,7 +15777,7 @@
         <v>1100</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="1"/>
@@ -15783,7 +15787,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" si="2"/>
@@ -15799,7 +15803,7 @@
         <v>1100</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="1"/>
@@ -15809,7 +15813,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="2"/>
@@ -15825,7 +15829,7 @@
         <v>11110</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="1"/>
@@ -15835,7 +15839,7 @@
         <v>61</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" si="2"/>
@@ -15851,7 +15855,7 @@
         <v>11110</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="1"/>
@@ -15861,7 +15865,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" si="2"/>
@@ -15878,7 +15882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
@@ -15886,10 +15890,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -15897,7 +15901,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -15906,7 +15910,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -15915,7 +15919,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -15924,7 +15928,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -15933,7 +15937,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -15942,7 +15946,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -15951,7 +15955,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -15960,7 +15964,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -15969,7 +15973,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -15978,7 +15982,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -15987,7 +15991,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -15996,7 +16000,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -16005,7 +16009,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -16014,7 +16018,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -16023,7 +16027,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -16032,7 +16036,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -16041,7 +16045,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -16050,7 +16054,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -16059,7 +16063,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -16068,7 +16072,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -16077,7 +16081,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -16086,7 +16090,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -16095,7 +16099,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -16104,7 +16108,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -16113,7 +16117,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -16122,7 +16126,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -16131,7 +16135,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -16140,7 +16144,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -16149,7 +16153,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -16158,7 +16162,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
@@ -16167,7 +16171,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -16176,7 +16180,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -16185,7 +16189,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -16194,7 +16198,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -16203,7 +16207,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -16212,7 +16216,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -16221,7 +16225,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -16230,7 +16234,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
@@ -16239,7 +16243,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -16248,7 +16252,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
@@ -16257,7 +16261,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -16266,7 +16270,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
@@ -16275,7 +16279,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
@@ -16284,7 +16288,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
@@ -16293,7 +16297,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
@@ -16302,7 +16306,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
@@ -16311,7 +16315,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
@@ -16320,7 +16324,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
@@ -16329,7 +16333,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -16338,7 +16342,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
@@ -16347,7 +16351,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
@@ -16356,7 +16360,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
@@ -16365,7 +16369,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
@@ -16374,7 +16378,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
@@ -16383,7 +16387,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
@@ -16392,7 +16396,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
@@ -16401,7 +16405,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
@@ -16410,7 +16414,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
@@ -16419,7 +16423,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
@@ -16428,7 +16432,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -16437,7 +16441,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
@@ -16446,7 +16450,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
@@ -16455,7 +16459,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
@@ -16464,7 +16468,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -16921,7 +16925,7 @@
         <v>42</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -16971,7 +16975,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -17411,7 +17415,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
@@ -17684,7 +17688,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -18051,7 +18055,7 @@
         <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>30</v>
@@ -18096,7 +18100,7 @@
         <v>30</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>31</v>
@@ -18192,7 +18196,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>123</v>
@@ -18228,7 +18232,7 @@
         <v>30</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>59</v>
@@ -18260,7 +18264,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>125</v>
@@ -18328,10 +18332,10 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -18345,10 +18349,13 @@
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:V8"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -18728,7 +18735,7 @@
         <v>129</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>30</v>
@@ -18793,10 +18800,10 @@
         <v>30</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>30</v>
@@ -18828,19 +18835,19 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>30</v>
@@ -18849,7 +18856,7 @@
         <v>33</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>30</v>
@@ -18864,13 +18871,13 @@
         <v>59</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>29</v>
@@ -18879,7 +18886,7 @@
         <v>46</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>31</v>
@@ -18899,7 +18906,7 @@
         <v>116</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -18927,7 +18934,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -19023,10 +19030,10 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>121</v>
@@ -19041,7 +19048,7 @@
         <v>59</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>122</v>
@@ -19086,7 +19093,7 @@
         <v>31</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
@@ -19094,13 +19101,13 @@
         <v>104</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>65</v>
@@ -19109,10 +19116,10 @@
         <v>59</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>39</v>
@@ -19159,10 +19166,10 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>70</v>
@@ -19171,13 +19178,13 @@
         <v>130</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>30</v>
@@ -19230,7 +19237,7 @@
         <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>30</v>
@@ -19245,7 +19252,7 @@
         <v>38</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>70</v>
@@ -19275,7 +19282,7 @@
         <v>30</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>59</v>
@@ -19295,15 +19302,15 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
@@ -19311,12 +19318,12 @@
         <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
@@ -19324,7 +19331,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
@@ -19357,7 +19364,7 @@
         <v>50</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>50</v>
@@ -19366,10 +19373,10 @@
         <v>39</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>29</v>
@@ -19389,16 +19396,16 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>26</v>
@@ -19407,7 +19414,7 @@
         <v>59</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>122</v>
@@ -19457,10 +19464,10 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>30</v>
@@ -19475,7 +19482,7 @@
         <v>59</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>59</v>
@@ -19505,10 +19512,10 @@
         <v>122</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>30</v>
@@ -19525,10 +19532,10 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>30</v>
@@ -19540,10 +19547,10 @@
         <v>101</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>59</v>
@@ -19573,7 +19580,7 @@
         <v>30</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>30</v>
@@ -19593,15 +19600,15 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:22" customFormat="1" x14ac:dyDescent="0.15">
@@ -19624,7 +19631,7 @@
         <v>38</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -19692,7 +19699,7 @@
         <v>38</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -19757,10 +19764,10 @@
         <v>26</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -19828,7 +19835,7 @@
         <v>38</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -19873,83 +19880,83 @@
         <v>0</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="J23" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="M23" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q23" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="R23" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="L23" s="1" t="s">
+      <c r="S23" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q23" s="1" t="s">
+      <c r="T23" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="V23" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -20044,10 +20051,10 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>29</v>
@@ -20080,7 +20087,7 @@
         <v>70</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>30</v>
@@ -20092,7 +20099,7 @@
         <v>30</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>30</v>
@@ -20104,7 +20111,7 @@
         <v>29</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>59</v>
@@ -20112,10 +20119,10 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
